--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shruthi\Desktop\GIT HUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF9368-F48F-4D33-A0DD-F78CC06E7E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B2308-6AE5-49BF-9720-73160A14E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>8t76t7yo87</t>
+    <t>hfkuyfgo8y</t>
   </si>
 </sst>
 </file>
